--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C90FCCD-7277-4CDD-A15F-F337B6851746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4564FF91-B5C0-47E2-9A46-5EE2A1C9ECD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1749,7 +1749,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2386,13 +2386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CF34"/>
+  <dimension ref="A1:CG34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="BZ11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="BZ13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CF34" sqref="CF34"/>
+      <selection pane="bottomRight" activeCell="CG26" sqref="CG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2419,16 +2419,16 @@
     <col min="75" max="79" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="82" max="85" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="CF1">
-        <f>COUNTA(CF4:CF34)</f>
+    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG1">
+        <f>COUNTA(CG4:CG34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:84" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:85" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -2681,8 +2681,11 @@
       <c r="CF3" s="5">
         <v>45126</v>
       </c>
+      <c r="CG3" s="5">
+        <v>45127</v>
+      </c>
     </row>
-    <row r="4" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2935,8 +2938,11 @@
       <c r="CF4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3189,8 +3195,11 @@
       <c r="CF5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3443,8 +3452,11 @@
       <c r="CF6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3697,8 +3709,11 @@
       <c r="CF7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -3951,8 +3966,11 @@
       <c r="CF8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4205,8 +4223,11 @@
       <c r="CF9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4459,8 +4480,11 @@
       <c r="CF10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4713,8 +4737,11 @@
       <c r="CF11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4967,8 +4994,11 @@
       <c r="CF12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5221,8 +5251,11 @@
       <c r="CF13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5475,8 +5508,11 @@
       <c r="CF14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5729,8 +5765,11 @@
       <c r="CF15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -5983,8 +6022,11 @@
       <c r="CF16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -6237,8 +6279,11 @@
       <c r="CF17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -6491,8 +6536,11 @@
       <c r="CF18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -6745,8 +6793,11 @@
       <c r="CF19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -6999,8 +7050,11 @@
       <c r="CF20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7253,8 +7307,11 @@
       <c r="CF21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -7507,8 +7564,11 @@
       <c r="CF22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -7761,8 +7821,11 @@
       <c r="CF23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -8015,8 +8078,11 @@
       <c r="CF24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -8269,8 +8335,11 @@
       <c r="CF25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -8523,8 +8592,11 @@
       <c r="CF26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -8777,8 +8849,11 @@
       <c r="CF27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -9031,8 +9106,11 @@
       <c r="CF28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -9285,8 +9363,11 @@
       <c r="CF29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -9539,8 +9620,11 @@
       <c r="CF30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -9793,8 +9877,11 @@
       <c r="CF31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -10047,8 +10134,11 @@
       <c r="CF32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -10301,8 +10391,11 @@
       <c r="CF33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CG33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:84" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -10553,6 +10646,9 @@
         <v>4</v>
       </c>
       <c r="CF34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CG34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4564FF91-B5C0-47E2-9A46-5EE2A1C9ECD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155ED8F6-BAD2-4C9C-81CF-5439D8655FDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,6 +200,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CH7" authorId="0" shapeId="0" xr:uid="{883225A3-2832-424C-A18A-04CF31BDC579}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:04</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BQ9" authorId="0" shapeId="0" xr:uid="{58F9013A-5E17-44CE-A1B7-B23E2E98B046}">
       <text>
         <r>
@@ -496,6 +510,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CH13" authorId="0" shapeId="0" xr:uid="{A02343FE-DAAC-42D9-8DF5-7C5BCAE47C67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:04</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AT14" authorId="0" shapeId="0" xr:uid="{DF014D67-CF6A-43AC-954D-E6FB7EDDB7BE}">
       <text>
         <r>
@@ -1278,6 +1306,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CH24" authorId="0" shapeId="0" xr:uid="{34836491-5673-4D58-A1AF-7998107EF94E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:01</t>
         </r>
       </text>
     </comment>
@@ -1749,7 +1791,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2134,7 +2176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2171,6 +2213,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2386,13 +2429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CG34"/>
+  <dimension ref="A1:CI34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="BZ13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CE4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CG26" sqref="CG26"/>
+      <selection pane="bottomRight" activeCell="CH7" sqref="CH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2419,16 +2462,16 @@
     <col min="75" max="79" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="85" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="82" max="86" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="CG1">
-        <f>COUNTA(CG4:CG34)</f>
+    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="CH1">
+        <f>COUNTA(CH4:CH34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:85" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:86" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -2684,8 +2727,11 @@
       <c r="CG3" s="5">
         <v>45127</v>
       </c>
+      <c r="CH3" s="5">
+        <v>45128</v>
+      </c>
     </row>
-    <row r="4" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2941,8 +2987,11 @@
       <c r="CG4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3198,8 +3247,11 @@
       <c r="CG5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3455,8 +3507,11 @@
       <c r="CG6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3712,8 +3767,11 @@
       <c r="CG7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -3969,8 +4027,11 @@
       <c r="CG8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4226,8 +4287,11 @@
       <c r="CG9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4483,8 +4547,11 @@
       <c r="CG10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4740,8 +4807,11 @@
       <c r="CG11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4997,8 +5067,11 @@
       <c r="CG12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5254,8 +5327,11 @@
       <c r="CG13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5511,8 +5587,11 @@
       <c r="CG14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5768,8 +5847,11 @@
       <c r="CG15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6025,8 +6107,11 @@
       <c r="CG16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -6282,8 +6367,11 @@
       <c r="CG17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -6539,8 +6627,11 @@
       <c r="CG18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -6796,8 +6887,11 @@
       <c r="CG19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7053,8 +7147,11 @@
       <c r="CG20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7310,8 +7407,11 @@
       <c r="CG21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -7567,8 +7667,11 @@
       <c r="CG22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -7824,8 +7927,11 @@
       <c r="CG23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -8081,8 +8187,12 @@
       <c r="CG24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CI24" s="16"/>
     </row>
-    <row r="25" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -8338,8 +8448,11 @@
       <c r="CG25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -8595,8 +8708,11 @@
       <c r="CG26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -8852,8 +8968,11 @@
       <c r="CG27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -9109,8 +9228,11 @@
       <c r="CG28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -9366,8 +9488,11 @@
       <c r="CG29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -9623,8 +9748,11 @@
       <c r="CG30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -9880,8 +10008,11 @@
       <c r="CG31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -10137,8 +10268,11 @@
       <c r="CG32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -10394,8 +10528,11 @@
       <c r="CG33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CH33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -10649,6 +10786,9 @@
         <v>4</v>
       </c>
       <c r="CG34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CH34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155ED8F6-BAD2-4C9C-81CF-5439D8655FDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE55D74D-DC1D-4DAE-872F-EB42A6F6BEA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,6 +214,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CI7" authorId="0" shapeId="0" xr:uid="{F708E27E-0164-4033-91CE-4B9CCB0ECDE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:10</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BQ9" authorId="0" shapeId="0" xr:uid="{58F9013A-5E17-44CE-A1B7-B23E2E98B046}">
       <text>
         <r>
@@ -524,6 +538,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CI13" authorId="0" shapeId="0" xr:uid="{15D4EDE1-93FC-43F2-ABED-A3A5A39FA4DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:10</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AT14" authorId="0" shapeId="0" xr:uid="{DF014D67-CF6A-43AC-954D-E6FB7EDDB7BE}">
       <text>
         <r>
@@ -1323,6 +1351,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CI24" authorId="0" shapeId="0" xr:uid="{E5374107-2664-4C03-9C0C-1757A03F8F0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:10</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R25" authorId="0" shapeId="0" xr:uid="{2E3360AC-93ED-47D5-A29A-768ED91910D3}">
       <text>
         <r>
@@ -1516,6 +1558,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CI25" authorId="0" shapeId="0" xr:uid="{0F1EECC0-F100-4A1F-8593-57B85111979A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:02</t>
         </r>
       </text>
     </comment>
@@ -1791,7 +1847,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2176,7 +2232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2213,7 +2269,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2432,10 +2487,10 @@
   <dimension ref="A1:CI34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CE4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CE5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CH7" sqref="CH7"/>
+      <selection pane="bottomRight" activeCell="CI25" sqref="CI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2462,16 +2517,16 @@
     <col min="75" max="79" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="86" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="82" max="87" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="CH1">
-        <f>COUNTA(CH4:CH34)</f>
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CI1">
+        <f>COUNTA(CI4:CI34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:86" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:87" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -2730,8 +2785,11 @@
       <c r="CH3" s="5">
         <v>45128</v>
       </c>
+      <c r="CI3" s="5">
+        <v>45129</v>
+      </c>
     </row>
-    <row r="4" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2990,8 +3048,11 @@
       <c r="CH4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3250,8 +3311,11 @@
       <c r="CH5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3510,8 +3574,11 @@
       <c r="CH6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3770,8 +3837,11 @@
       <c r="CH7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4030,8 +4100,11 @@
       <c r="CH8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4290,8 +4363,11 @@
       <c r="CH9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4550,8 +4626,11 @@
       <c r="CH10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4810,8 +4889,11 @@
       <c r="CH11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5070,8 +5152,11 @@
       <c r="CH12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5330,8 +5415,11 @@
       <c r="CH13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5590,8 +5678,11 @@
       <c r="CH14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5850,8 +5941,11 @@
       <c r="CH15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6108,6 +6202,9 @@
         <v>4</v>
       </c>
       <c r="CH16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CI16" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6370,6 +6467,9 @@
       <c r="CH17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -6630,6 +6730,9 @@
       <c r="CH18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
@@ -6890,6 +6993,9 @@
       <c r="CH19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -7150,6 +7256,9 @@
       <c r="CH20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -7410,6 +7519,9 @@
       <c r="CH21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -7670,6 +7782,9 @@
       <c r="CH22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -7930,6 +8045,9 @@
       <c r="CH23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
@@ -8190,7 +8308,9 @@
       <c r="CH24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="CI24" s="16"/>
+      <c r="CI24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
@@ -8451,6 +8571,9 @@
       <c r="CH25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
@@ -8711,6 +8834,9 @@
       <c r="CH26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
@@ -8971,6 +9097,9 @@
       <c r="CH27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
@@ -9231,6 +9360,9 @@
       <c r="CH28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
@@ -9491,6 +9623,9 @@
       <c r="CH29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
@@ -9751,6 +9886,9 @@
       <c r="CH30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
@@ -10011,6 +10149,9 @@
       <c r="CH31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
@@ -10271,8 +10412,11 @@
       <c r="CH32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -10531,8 +10675,11 @@
       <c r="CH33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CI33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:86" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -10789,6 +10936,9 @@
         <v>4</v>
       </c>
       <c r="CH34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CI34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE55D74D-DC1D-4DAE-872F-EB42A6F6BEA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54CBE7-8A15-43F6-81F9-A41BE5AC6CD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,6 +552,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CJ13" authorId="0" shapeId="0" xr:uid="{CCD81222-679B-496C-B383-700A2B1DE782}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:09. Came at 8:50 and went to pantry. Food came late</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AT14" authorId="0" shapeId="0" xr:uid="{DF014D67-CF6A-43AC-954D-E6FB7EDDB7BE}">
       <text>
         <r>
@@ -1572,6 +1586,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:02</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CJ25" authorId="0" shapeId="0" xr:uid="{56DEB996-3F81-4EAE-8D2D-0FBF5743B67F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:03</t>
         </r>
       </text>
     </comment>
@@ -1847,7 +1875,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2484,13 +2512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CI34"/>
+  <dimension ref="A1:CJ34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CE5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CE4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CI25" sqref="CI25"/>
+      <selection pane="bottomRight" activeCell="CL19" sqref="CL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2517,16 +2545,16 @@
     <col min="75" max="79" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="87" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="82" max="88" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="CI1">
-        <f>COUNTA(CI4:CI34)</f>
+    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="CJ1">
+        <f>COUNTA(CJ4:CJ34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:87" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:88" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -2788,8 +2816,11 @@
       <c r="CI3" s="5">
         <v>45129</v>
       </c>
+      <c r="CJ3" s="5">
+        <v>45131</v>
+      </c>
     </row>
-    <row r="4" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3051,8 +3082,11 @@
       <c r="CI4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3314,8 +3348,11 @@
       <c r="CI5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3577,8 +3614,11 @@
       <c r="CI6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3840,8 +3880,11 @@
       <c r="CI7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4103,8 +4146,11 @@
       <c r="CI8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4366,8 +4412,11 @@
       <c r="CI9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4629,8 +4678,11 @@
       <c r="CI10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4892,8 +4944,11 @@
       <c r="CI11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5155,8 +5210,11 @@
       <c r="CI12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5418,8 +5476,11 @@
       <c r="CI13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5681,8 +5742,11 @@
       <c r="CI14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5944,8 +6008,11 @@
       <c r="CI15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6207,8 +6274,11 @@
       <c r="CI16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -6470,8 +6540,11 @@
       <c r="CI17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -6733,8 +6806,11 @@
       <c r="CI18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -6996,8 +7072,11 @@
       <c r="CI19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ19" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="20" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7259,8 +7338,11 @@
       <c r="CI20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7522,8 +7604,11 @@
       <c r="CI21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -7785,8 +7870,11 @@
       <c r="CI22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -8048,8 +8136,11 @@
       <c r="CI23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -8311,8 +8402,11 @@
       <c r="CI24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -8574,8 +8668,11 @@
       <c r="CI25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -8837,8 +8934,11 @@
       <c r="CI26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -9100,8 +9200,11 @@
       <c r="CI27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -9363,8 +9466,11 @@
       <c r="CI28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -9626,8 +9732,11 @@
       <c r="CI29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -9889,8 +9998,11 @@
       <c r="CI30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -10152,8 +10264,11 @@
       <c r="CI31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -10415,8 +10530,11 @@
       <c r="CI32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -10678,8 +10796,11 @@
       <c r="CI33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CJ33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -10939,6 +11060,9 @@
         <v>4</v>
       </c>
       <c r="CI34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54CBE7-8A15-43F6-81F9-A41BE5AC6CD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6295A3DB-6AB8-4098-A81E-2D3FE23205BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1875,7 +1875,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2512,13 +2512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CJ34"/>
+  <dimension ref="A1:CK34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CE4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="BY4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CL19" sqref="CL19"/>
+      <selection pane="bottomRight" activeCell="CL4" sqref="CL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2545,16 +2545,16 @@
     <col min="75" max="79" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="88" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="82" max="89" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="CJ1">
-        <f>COUNTA(CJ4:CJ34)</f>
+    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="CK1">
+        <f>COUNTA(CK4:CK34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:88" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -2819,8 +2819,11 @@
       <c r="CJ3" s="5">
         <v>45131</v>
       </c>
+      <c r="CK3" s="5">
+        <v>45132</v>
+      </c>
     </row>
-    <row r="4" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3085,8 +3088,11 @@
       <c r="CJ4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3351,8 +3357,11 @@
       <c r="CJ5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3617,8 +3626,11 @@
       <c r="CJ6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3883,8 +3895,11 @@
       <c r="CJ7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4149,8 +4164,11 @@
       <c r="CJ8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4415,8 +4433,11 @@
       <c r="CJ9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4681,8 +4702,11 @@
       <c r="CJ10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4947,8 +4971,11 @@
       <c r="CJ11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5213,8 +5240,11 @@
       <c r="CJ12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5479,8 +5509,11 @@
       <c r="CJ13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5745,8 +5778,11 @@
       <c r="CJ14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -6011,8 +6047,11 @@
       <c r="CJ15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6277,8 +6316,11 @@
       <c r="CJ16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -6543,8 +6585,11 @@
       <c r="CJ17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -6809,8 +6854,11 @@
       <c r="CJ18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7075,8 +7123,11 @@
       <c r="CJ19" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="CK19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7341,8 +7392,11 @@
       <c r="CJ20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7607,8 +7661,11 @@
       <c r="CJ21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -7873,8 +7930,11 @@
       <c r="CJ22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -8139,8 +8199,11 @@
       <c r="CJ23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -8405,8 +8468,11 @@
       <c r="CJ24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -8671,8 +8737,11 @@
       <c r="CJ25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -8937,8 +9006,11 @@
       <c r="CJ26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -9203,8 +9275,11 @@
       <c r="CJ27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -9469,8 +9544,11 @@
       <c r="CJ28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -9735,8 +9813,11 @@
       <c r="CJ29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -10001,8 +10082,11 @@
       <c r="CJ30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -10267,8 +10351,11 @@
       <c r="CJ31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -10533,8 +10620,11 @@
       <c r="CJ32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -10799,8 +10889,11 @@
       <c r="CJ33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CK33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -11063,6 +11156,9 @@
         <v>4</v>
       </c>
       <c r="CJ34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6295A3DB-6AB8-4098-A81E-2D3FE23205BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4AF840-6371-442A-8ED1-BF4544FA8D7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,6 +566,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CL13" authorId="0" shapeId="0" xr:uid="{2E906EB0-55FE-4085-84D6-D963798CA0FC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:04</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AT14" authorId="0" shapeId="0" xr:uid="{DF014D67-CF6A-43AC-954D-E6FB7EDDB7BE}">
       <text>
         <r>
@@ -1376,6 +1390,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CL24" authorId="0" shapeId="0" xr:uid="{5DF68552-8CF4-431C-876E-CC796C248959}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:02</t>
         </r>
       </text>
     </comment>
@@ -1875,7 +1903,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2512,13 +2540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CK34"/>
+  <dimension ref="A1:CL34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="BY4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="BZ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CL4" sqref="CL4"/>
+      <selection pane="bottomRight" activeCell="CM6" sqref="CM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2545,16 +2573,20 @@
     <col min="75" max="79" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="89" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="82" max="90" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.25">
       <c r="CK1">
         <f>COUNTA(CK4:CK34)</f>
         <v>31</v>
       </c>
+      <c r="CL1">
+        <f>COUNTA(CL4:CL34)</f>
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:89" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:90" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -2822,8 +2854,11 @@
       <c r="CK3" s="5">
         <v>45132</v>
       </c>
+      <c r="CL3" s="5">
+        <v>45133</v>
+      </c>
     </row>
-    <row r="4" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3091,8 +3126,11 @@
       <c r="CK4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3360,8 +3398,11 @@
       <c r="CK5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3629,8 +3670,11 @@
       <c r="CK6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3898,8 +3942,11 @@
       <c r="CK7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4167,8 +4214,11 @@
       <c r="CK8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4436,8 +4486,11 @@
       <c r="CK9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4705,8 +4758,11 @@
       <c r="CK10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4974,8 +5030,11 @@
       <c r="CK11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5243,8 +5302,11 @@
       <c r="CK12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5512,8 +5574,11 @@
       <c r="CK13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5781,8 +5846,11 @@
       <c r="CK14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -6050,8 +6118,11 @@
       <c r="CK15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6319,8 +6390,11 @@
       <c r="CK16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -6588,8 +6662,11 @@
       <c r="CK17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -6857,8 +6934,11 @@
       <c r="CK18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7126,8 +7206,11 @@
       <c r="CK19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7395,8 +7478,11 @@
       <c r="CK20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7664,8 +7750,11 @@
       <c r="CK21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -7933,8 +8022,11 @@
       <c r="CK22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -8202,8 +8294,11 @@
       <c r="CK23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -8471,8 +8566,11 @@
       <c r="CK24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -8740,8 +8838,11 @@
       <c r="CK25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -9009,8 +9110,11 @@
       <c r="CK26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -9278,8 +9382,11 @@
       <c r="CK27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -9547,8 +9654,11 @@
       <c r="CK28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -9816,8 +9926,11 @@
       <c r="CK29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -10085,8 +10198,11 @@
       <c r="CK30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -10354,8 +10470,11 @@
       <c r="CK31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -10623,8 +10742,11 @@
       <c r="CK32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -10892,8 +11014,11 @@
       <c r="CK33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CL33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -11159,6 +11284,9 @@
         <v>4</v>
       </c>
       <c r="CK34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4AF840-6371-442A-8ED1-BF4544FA8D7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3FE6CB-CD34-49D2-8BE8-1FFE6AC4DDB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,6 +580,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CM13" authorId="0" shapeId="0" xr:uid="{A4D6CC5D-D781-4D56-A28D-3C83979B560E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:04</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AT14" authorId="0" shapeId="0" xr:uid="{DF014D67-CF6A-43AC-954D-E6FB7EDDB7BE}">
       <text>
         <r>
@@ -1903,7 +1917,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2540,13 +2554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CL34"/>
+  <dimension ref="A1:CM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="BZ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CM6" sqref="CM6"/>
+      <selection pane="bottomRight" activeCell="CM13" sqref="CM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2573,20 +2587,16 @@
     <col min="75" max="79" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="90" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="82" max="91" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CK1">
-        <f>COUNTA(CK4:CK34)</f>
+    <row r="1" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="CM1">
+        <f>COUNTA(CM4:CM34)</f>
         <v>31</v>
       </c>
-      <c r="CL1">
-        <f>COUNTA(CL4:CL34)</f>
-        <v>31</v>
-      </c>
     </row>
-    <row r="3" spans="1:90" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:91" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -2857,8 +2867,11 @@
       <c r="CL3" s="5">
         <v>45133</v>
       </c>
+      <c r="CM3" s="5">
+        <v>45134</v>
+      </c>
     </row>
-    <row r="4" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3129,8 +3142,11 @@
       <c r="CL4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3401,8 +3417,11 @@
       <c r="CL5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3673,8 +3692,11 @@
       <c r="CL6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3945,8 +3967,11 @@
       <c r="CL7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4217,8 +4242,11 @@
       <c r="CL8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4489,8 +4517,11 @@
       <c r="CL9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4761,8 +4792,11 @@
       <c r="CL10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5033,8 +5067,11 @@
       <c r="CL11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5305,8 +5342,11 @@
       <c r="CL12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5577,8 +5617,11 @@
       <c r="CL13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5849,8 +5892,11 @@
       <c r="CL14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -6121,8 +6167,11 @@
       <c r="CL15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6393,8 +6442,11 @@
       <c r="CL16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -6665,8 +6717,11 @@
       <c r="CL17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -6937,8 +6992,11 @@
       <c r="CL18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7209,8 +7267,11 @@
       <c r="CL19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7481,8 +7542,11 @@
       <c r="CL20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7753,8 +7817,11 @@
       <c r="CL21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -8025,8 +8092,11 @@
       <c r="CL22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -8297,8 +8367,11 @@
       <c r="CL23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -8569,8 +8642,11 @@
       <c r="CL24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -8841,8 +8917,11 @@
       <c r="CL25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -9113,8 +9192,11 @@
       <c r="CL26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -9385,8 +9467,11 @@
       <c r="CL27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -9657,8 +9742,11 @@
       <c r="CL28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -9929,8 +10017,11 @@
       <c r="CL29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -10201,8 +10292,11 @@
       <c r="CL30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -10473,8 +10567,11 @@
       <c r="CL31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -10745,8 +10842,11 @@
       <c r="CL32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -11017,8 +11117,11 @@
       <c r="CL33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CM33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -11287,6 +11390,9 @@
         <v>4</v>
       </c>
       <c r="CL34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3FE6CB-CD34-49D2-8BE8-1FFE6AC4DDB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D623261-C0B1-40EC-9B53-0BD7E85F6CAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,6 +72,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CN6" authorId="0" shapeId="0" xr:uid="{71D269D5-090A-4104-BB6F-865F4CF39A2E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:06</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N7" authorId="0" shapeId="0" xr:uid="{F6F4F720-DA46-4DC0-8124-2D3953156CC6}">
       <text>
         <r>
@@ -846,6 +860,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CO18" authorId="0" shapeId="0" xr:uid="{EAB3A67C-4D7B-47A3-852A-793D0B74B832}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:02</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BJ19" authorId="0" shapeId="0" xr:uid="{48F35BF0-9CB9-4D81-AF45-B901F733BC15}">
       <text>
         <r>
@@ -1421,6 +1449,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CN24" authorId="0" shapeId="0" xr:uid="{1A4CF01F-9881-4D74-BFB0-6AC63121194C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:04</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R25" authorId="0" shapeId="0" xr:uid="{2E3360AC-93ED-47D5-A29A-768ED91910D3}">
       <text>
         <r>
@@ -1881,6 +1923,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CO32" authorId="0" shapeId="0" xr:uid="{10134793-1B4F-4E12-B709-B5E921ACC10B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:02</t>
         </r>
       </text>
     </comment>
@@ -1917,7 +1973,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2986" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2554,13 +2610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CM34"/>
+  <dimension ref="A1:CO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="BZ4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CD11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CM13" sqref="CM13"/>
+      <selection pane="bottomRight" activeCell="CO34" sqref="CO34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2587,16 +2643,16 @@
     <col min="75" max="79" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="91" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="82" max="93" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="CM1">
-        <f>COUNTA(CM4:CM34)</f>
+    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CO1">
+        <f>COUNTA(CO4:CO34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:91" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:93" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -2870,8 +2926,14 @@
       <c r="CM3" s="5">
         <v>45134</v>
       </c>
+      <c r="CN3" s="5">
+        <v>45135</v>
+      </c>
+      <c r="CO3" s="5">
+        <v>45136</v>
+      </c>
     </row>
-    <row r="4" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3145,8 +3207,14 @@
       <c r="CM4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3420,8 +3488,14 @@
       <c r="CM5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3695,8 +3769,14 @@
       <c r="CM6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3970,8 +4050,14 @@
       <c r="CM7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4245,8 +4331,14 @@
       <c r="CM8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4520,8 +4612,14 @@
       <c r="CM9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4795,8 +4893,14 @@
       <c r="CM10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5070,8 +5174,14 @@
       <c r="CM11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5345,8 +5455,14 @@
       <c r="CM12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5620,8 +5736,14 @@
       <c r="CM13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5895,8 +6017,14 @@
       <c r="CM14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -6170,8 +6298,14 @@
       <c r="CM15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6445,8 +6579,14 @@
       <c r="CM16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -6720,8 +6860,14 @@
       <c r="CM17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -6995,8 +7141,14 @@
       <c r="CM18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7270,8 +7422,14 @@
       <c r="CM19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7545,8 +7703,14 @@
       <c r="CM20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7820,8 +7984,14 @@
       <c r="CM21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -8095,8 +8265,14 @@
       <c r="CM22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -8370,8 +8546,14 @@
       <c r="CM23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -8645,8 +8827,14 @@
       <c r="CM24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -8920,8 +9108,14 @@
       <c r="CM25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -9195,8 +9389,14 @@
       <c r="CM26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -9470,8 +9670,14 @@
       <c r="CM27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -9745,8 +9951,14 @@
       <c r="CM28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -10020,8 +10232,14 @@
       <c r="CM29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -10295,8 +10513,14 @@
       <c r="CM30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -10570,8 +10794,14 @@
       <c r="CM31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -10845,8 +11075,14 @@
       <c r="CM32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -11120,8 +11356,14 @@
       <c r="CM33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CN33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -11393,6 +11635,12 @@
         <v>4</v>
       </c>
       <c r="CM34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D623261-C0B1-40EC-9B53-0BD7E85F6CAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C4B6A9-E9A9-461D-B403-567FED445622}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,6 +86,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CQ6" authorId="0" shapeId="0" xr:uid="{85388B50-E61F-4959-8CDF-5EFD0C7A0452}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:03</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N7" authorId="0" shapeId="0" xr:uid="{F6F4F720-DA46-4DC0-8124-2D3953156CC6}">
       <text>
         <r>
@@ -382,6 +396,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CQ10" authorId="0" shapeId="0" xr:uid="{23969ECD-3016-4087-8123-E1D99B07E704}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:01</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AR12" authorId="0" shapeId="0" xr:uid="{545F614C-5FF6-474D-A0CA-692648A0BE68}">
       <text>
         <r>
@@ -874,6 +902,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CQ18" authorId="0" shapeId="0" xr:uid="{149C04A1-D0CD-47B9-8403-469EAE09B851}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:03</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BJ19" authorId="0" shapeId="0" xr:uid="{48F35BF0-9CB9-4D81-AF45-B901F733BC15}">
       <text>
         <r>
@@ -1463,6 +1505,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CQ24" authorId="0" shapeId="0" xr:uid="{A8A1B0F8-2F0D-42FA-95BA-A90DF721F2C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:01</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R25" authorId="0" shapeId="0" xr:uid="{2E3360AC-93ED-47D5-A29A-768ED91910D3}">
       <text>
         <r>
@@ -1937,6 +1993,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:02</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CQ32" authorId="0" shapeId="0" xr:uid="{D467645F-FFBC-44B1-8D71-E36289278E37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:03</t>
         </r>
       </text>
     </comment>
@@ -1973,7 +2043,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2986" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2610,13 +2680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CO34"/>
+  <dimension ref="A1:CQ34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CD11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CE4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CO34" sqref="CO34"/>
+      <selection pane="bottomRight" activeCell="CQ3" sqref="CQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2644,15 +2714,17 @@
     <col min="80" max="80" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="82" max="93" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.88671875" customWidth="1"/>
+    <col min="95" max="95" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="CO1">
-        <f>COUNTA(CO4:CO34)</f>
+    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="CQ1">
+        <f>COUNTA(CQ4:CQ34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:93" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:95" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -2932,8 +3004,14 @@
       <c r="CO3" s="5">
         <v>45136</v>
       </c>
+      <c r="CP3" s="5">
+        <v>45138</v>
+      </c>
+      <c r="CQ3" s="5">
+        <v>45139</v>
+      </c>
     </row>
-    <row r="4" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3213,8 +3291,14 @@
       <c r="CO4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3494,8 +3578,14 @@
       <c r="CO5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3775,8 +3865,14 @@
       <c r="CO6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4056,8 +4152,14 @@
       <c r="CO7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4337,8 +4439,14 @@
       <c r="CO8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ8" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="9" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4618,8 +4726,14 @@
       <c r="CO9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4899,8 +5013,14 @@
       <c r="CO10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5180,8 +5300,14 @@
       <c r="CO11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5461,8 +5587,14 @@
       <c r="CO12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="CQ12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5742,8 +5874,14 @@
       <c r="CO13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -6023,8 +6161,14 @@
       <c r="CO14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -6304,8 +6448,14 @@
       <c r="CO15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6585,8 +6735,14 @@
       <c r="CO16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -6866,8 +7022,14 @@
       <c r="CO17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7147,8 +7309,14 @@
       <c r="CO18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7428,8 +7596,14 @@
       <c r="CO19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7709,8 +7883,14 @@
       <c r="CO20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7990,8 +8170,14 @@
       <c r="CO21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -8271,8 +8457,14 @@
       <c r="CO22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -8552,8 +8744,14 @@
       <c r="CO23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -8833,8 +9031,14 @@
       <c r="CO24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -9114,8 +9318,14 @@
       <c r="CO25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -9395,8 +9605,14 @@
       <c r="CO26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -9676,8 +9892,14 @@
       <c r="CO27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="CQ27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -9957,8 +10179,14 @@
       <c r="CO28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -10238,8 +10466,14 @@
       <c r="CO29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -10519,8 +10753,14 @@
       <c r="CO30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -10800,8 +11040,14 @@
       <c r="CO31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -11081,8 +11327,14 @@
       <c r="CO32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -11362,8 +11614,14 @@
       <c r="CO33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CP33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -11641,6 +11899,12 @@
         <v>4</v>
       </c>
       <c r="CO34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C4B6A9-E9A9-461D-B403-567FED445622}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6737A6DC-2636-4ADD-B580-00990AEF24DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2043,7 +2043,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2680,13 +2680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CQ34"/>
+  <dimension ref="A1:CR34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CE4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CE7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CQ3" sqref="CQ3"/>
+      <selection pane="bottomRight" activeCell="CR11" sqref="CR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2715,16 +2715,16 @@
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="82" max="93" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="10.88671875" customWidth="1"/>
-    <col min="95" max="95" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="CQ1">
-        <f>COUNTA(CQ4:CQ34)</f>
+    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="CR1">
+        <f>COUNTA(CR4:CR34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:95" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:96" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -3010,8 +3010,11 @@
       <c r="CQ3" s="5">
         <v>45139</v>
       </c>
+      <c r="CR3" s="5">
+        <v>45140</v>
+      </c>
     </row>
-    <row r="4" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3297,8 +3300,11 @@
       <c r="CQ4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3584,8 +3590,11 @@
       <c r="CQ5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3871,8 +3880,11 @@
       <c r="CQ6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4158,8 +4170,11 @@
       <c r="CQ7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4445,8 +4460,11 @@
       <c r="CQ8" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="CR8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4732,8 +4750,11 @@
       <c r="CQ9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5019,8 +5040,11 @@
       <c r="CQ10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5306,8 +5330,11 @@
       <c r="CQ11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5593,8 +5620,11 @@
       <c r="CQ12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5880,8 +5910,11 @@
       <c r="CQ13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -6167,8 +6200,11 @@
       <c r="CQ14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -6454,8 +6490,11 @@
       <c r="CQ15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6741,8 +6780,11 @@
       <c r="CQ16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7028,8 +7070,11 @@
       <c r="CQ17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7315,8 +7360,11 @@
       <c r="CQ18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7602,8 +7650,11 @@
       <c r="CQ19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7889,8 +7940,11 @@
       <c r="CQ20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -8176,8 +8230,11 @@
       <c r="CQ21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -8463,8 +8520,11 @@
       <c r="CQ22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -8750,8 +8810,11 @@
       <c r="CQ23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9037,8 +9100,11 @@
       <c r="CQ24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -9324,8 +9390,11 @@
       <c r="CQ25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -9611,8 +9680,11 @@
       <c r="CQ26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -9898,8 +9970,11 @@
       <c r="CQ27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -10185,8 +10260,11 @@
       <c r="CQ28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -10472,8 +10550,11 @@
       <c r="CQ29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -10759,8 +10840,11 @@
       <c r="CQ30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -11046,8 +11130,11 @@
       <c r="CQ31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -11333,8 +11420,11 @@
       <c r="CQ32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -11620,8 +11710,11 @@
       <c r="CQ33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CR33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -11905,6 +11998,9 @@
         <v>4</v>
       </c>
       <c r="CQ34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6737A6DC-2636-4ADD-B580-00990AEF24DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED461CB-0CBF-43B3-9B35-A8BB529A4EF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,6 +256,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CS7" authorId="0" shapeId="0" xr:uid="{B41C446E-C1B0-4F16-8C25-798C63E9E790}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:02</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BQ9" authorId="0" shapeId="0" xr:uid="{58F9013A-5E17-44CE-A1B7-B23E2E98B046}">
       <text>
         <r>
@@ -407,6 +421,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CS10" authorId="0" shapeId="0" xr:uid="{3BB51BC3-9D6F-4ACB-ABA8-1CA6B10109D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:02</t>
         </r>
       </text>
     </comment>
@@ -1126,6 +1154,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CS21" authorId="0" shapeId="0" xr:uid="{6B32DD44-C933-4EAC-AF34-11F4ABD88DEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:05</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Z22" authorId="0" shapeId="0" xr:uid="{DDD8C7AD-47C9-4E11-8FE8-07117ACB2789}">
       <text>
         <r>
@@ -1516,6 +1558,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CS24" authorId="0" shapeId="0" xr:uid="{B25E64EF-09C9-4B02-B726-A50DE151B44E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:02</t>
         </r>
       </text>
     </comment>
@@ -2043,7 +2099,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2680,13 +2736,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CR34"/>
+  <dimension ref="A1:CS34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CE7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CM4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CR11" sqref="CR11"/>
+      <selection pane="bottomRight" activeCell="CW17" sqref="CW17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2715,16 +2771,16 @@
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="82" max="93" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="10.88671875" customWidth="1"/>
-    <col min="95" max="96" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="95" max="97" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR1">
-        <f>COUNTA(CR4:CR34)</f>
+    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CS1">
+        <f>COUNTA(CS4:CS34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:96" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:97" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -3013,8 +3069,11 @@
       <c r="CR3" s="5">
         <v>45140</v>
       </c>
+      <c r="CS3" s="5">
+        <v>45141</v>
+      </c>
     </row>
-    <row r="4" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3303,8 +3362,11 @@
       <c r="CR4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3593,8 +3655,11 @@
       <c r="CR5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3883,8 +3948,11 @@
       <c r="CR6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4173,8 +4241,11 @@
       <c r="CR7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4463,8 +4534,11 @@
       <c r="CR8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4753,8 +4827,11 @@
       <c r="CR9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5043,8 +5120,11 @@
       <c r="CR10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5333,8 +5413,11 @@
       <c r="CR11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5623,8 +5706,11 @@
       <c r="CR12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5913,8 +5999,11 @@
       <c r="CR13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -6203,8 +6292,11 @@
       <c r="CR14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -6493,8 +6585,11 @@
       <c r="CR15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6783,8 +6878,11 @@
       <c r="CR16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7073,8 +7171,11 @@
       <c r="CR17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7363,8 +7464,11 @@
       <c r="CR18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7653,8 +7757,11 @@
       <c r="CR19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7943,8 +8050,11 @@
       <c r="CR20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -8233,8 +8343,11 @@
       <c r="CR21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -8523,8 +8636,11 @@
       <c r="CR22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -8813,8 +8929,11 @@
       <c r="CR23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9103,8 +9222,11 @@
       <c r="CR24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -9393,8 +9515,11 @@
       <c r="CR25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -9683,8 +9808,11 @@
       <c r="CR26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -9973,8 +10101,11 @@
       <c r="CR27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -10263,8 +10394,11 @@
       <c r="CR28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -10553,8 +10687,11 @@
       <c r="CR29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -10843,8 +10980,11 @@
       <c r="CR30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -11133,8 +11273,11 @@
       <c r="CR31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -11423,8 +11566,11 @@
       <c r="CR32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -11713,8 +11859,11 @@
       <c r="CR33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CS33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:96" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -12001,6 +12150,9 @@
         <v>4</v>
       </c>
       <c r="CR34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED461CB-0CBF-43B3-9B35-A8BB529A4EF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D059E6D-208B-4AF2-B429-29EA97526B70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,6 +270,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CT7" authorId="0" shapeId="0" xr:uid="{AB9ACEDF-0522-4F63-BC08-0788379A67E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:02</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BQ9" authorId="0" shapeId="0" xr:uid="{58F9013A-5E17-44CE-A1B7-B23E2E98B046}">
       <text>
         <r>
@@ -664,6 +678,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CT13" authorId="0" shapeId="0" xr:uid="{4BFD632A-DF90-4041-9C57-662817DDB748}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:02</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AT14" authorId="0" shapeId="0" xr:uid="{DF014D67-CF6A-43AC-954D-E6FB7EDDB7BE}">
       <text>
         <r>
@@ -1572,6 +1600,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:02</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CT24" authorId="0" shapeId="0" xr:uid="{67DD81AC-C5E2-4E37-A364-0072318A4303}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:04</t>
         </r>
       </text>
     </comment>
@@ -2099,7 +2141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2736,13 +2778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CS34"/>
+  <dimension ref="A1:CT34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="CM4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CW17" sqref="CW17"/>
+      <selection pane="bottomRight" activeCell="CU16" sqref="CU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2771,16 +2813,16 @@
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="82" max="93" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="10.88671875" customWidth="1"/>
-    <col min="95" max="97" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="95" max="98" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="CS1">
-        <f>COUNTA(CS4:CS34)</f>
+    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="CT1">
+        <f>COUNTA(CT4:CT34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:97" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:98" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -3072,8 +3114,11 @@
       <c r="CS3" s="5">
         <v>45141</v>
       </c>
+      <c r="CT3" s="5">
+        <v>45142</v>
+      </c>
     </row>
-    <row r="4" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3365,8 +3410,11 @@
       <c r="CS4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3658,8 +3706,11 @@
       <c r="CS5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3951,8 +4002,11 @@
       <c r="CS6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4244,8 +4298,11 @@
       <c r="CS7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4537,8 +4594,11 @@
       <c r="CS8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4830,8 +4890,11 @@
       <c r="CS9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5123,8 +5186,11 @@
       <c r="CS10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5416,8 +5482,11 @@
       <c r="CS11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5709,8 +5778,11 @@
       <c r="CS12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -6002,8 +6074,11 @@
       <c r="CS13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -6295,8 +6370,11 @@
       <c r="CS14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -6588,8 +6666,11 @@
       <c r="CS15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6881,8 +6962,11 @@
       <c r="CS16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7174,8 +7258,11 @@
       <c r="CS17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7467,8 +7554,11 @@
       <c r="CS18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7760,8 +7850,11 @@
       <c r="CS19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -8053,8 +8146,11 @@
       <c r="CS20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -8346,8 +8442,11 @@
       <c r="CS21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -8639,8 +8738,11 @@
       <c r="CS22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -8932,8 +9034,11 @@
       <c r="CS23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9225,8 +9330,11 @@
       <c r="CS24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -9518,8 +9626,11 @@
       <c r="CS25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -9811,8 +9922,11 @@
       <c r="CS26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -10104,8 +10218,11 @@
       <c r="CS27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -10397,8 +10514,11 @@
       <c r="CS28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -10690,8 +10810,11 @@
       <c r="CS29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -10983,8 +11106,11 @@
       <c r="CS30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -11276,8 +11402,11 @@
       <c r="CS31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -11569,8 +11698,11 @@
       <c r="CS32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -11862,8 +11994,11 @@
       <c r="CS33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CT33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -12153,6 +12288,9 @@
         <v>4</v>
       </c>
       <c r="CS34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D059E6D-208B-4AF2-B429-29EA97526B70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076B2984-6789-4871-B9BE-42DC0127CCB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,6 +57,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CU5" authorId="0" shapeId="0" xr:uid="{090DCA10-C25E-4CA8-83F0-E07496D72D75}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:02</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BP6" authorId="0" shapeId="0" xr:uid="{FD55F6C6-469C-4178-A7B6-73CAAEE2A66E}">
       <text>
         <r>
@@ -1617,6 +1631,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CU24" authorId="0" shapeId="0" xr:uid="{0BE80E66-0887-416E-9FCE-287013CB0F20}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:12</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R25" authorId="0" shapeId="0" xr:uid="{2E3360AC-93ED-47D5-A29A-768ED91910D3}">
       <text>
         <r>
@@ -1880,6 +1908,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:03</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CU29" authorId="0" shapeId="0" xr:uid="{E0430967-EFEC-4FE4-A8DE-B8E08FFBE426}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:02</t>
         </r>
       </text>
     </comment>
@@ -2141,7 +2183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2778,13 +2820,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CT34"/>
+  <dimension ref="A1:CU34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CM4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CM7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CU16" sqref="CU16"/>
+      <selection pane="bottomRight" activeCell="CV16" sqref="CV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2813,16 +2855,16 @@
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="82" max="93" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="10.88671875" customWidth="1"/>
-    <col min="95" max="98" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="95" max="99" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="CT1">
-        <f>COUNTA(CT4:CT34)</f>
+    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="CU1">
+        <f>COUNTA(CU4:CU34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:98" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:99" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -3117,8 +3159,11 @@
       <c r="CT3" s="5">
         <v>45142</v>
       </c>
+      <c r="CU3" s="5">
+        <v>45143</v>
+      </c>
     </row>
-    <row r="4" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3413,8 +3458,11 @@
       <c r="CT4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3709,8 +3757,11 @@
       <c r="CT5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4005,8 +4056,11 @@
       <c r="CT6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4301,8 +4355,11 @@
       <c r="CT7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4597,8 +4654,11 @@
       <c r="CT8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4893,8 +4953,11 @@
       <c r="CT9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5189,8 +5252,11 @@
       <c r="CT10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5485,8 +5551,11 @@
       <c r="CT11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5781,8 +5850,11 @@
       <c r="CT12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -6077,8 +6149,11 @@
       <c r="CT13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -6373,8 +6448,11 @@
       <c r="CT14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -6669,8 +6747,11 @@
       <c r="CT15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6965,8 +7046,11 @@
       <c r="CT16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7261,8 +7345,11 @@
       <c r="CT17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7557,8 +7644,11 @@
       <c r="CT18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7853,8 +7943,11 @@
       <c r="CT19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -8149,8 +8242,11 @@
       <c r="CT20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -8445,8 +8541,11 @@
       <c r="CT21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -8741,8 +8840,11 @@
       <c r="CT22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -9037,8 +9139,11 @@
       <c r="CT23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9333,8 +9438,11 @@
       <c r="CT24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -9629,8 +9737,11 @@
       <c r="CT25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -9925,8 +10036,11 @@
       <c r="CT26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -10221,8 +10335,11 @@
       <c r="CT27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -10517,8 +10634,11 @@
       <c r="CT28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -10813,8 +10933,11 @@
       <c r="CT29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -11109,8 +11232,11 @@
       <c r="CT30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -11405,8 +11531,11 @@
       <c r="CT31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -11701,8 +11830,11 @@
       <c r="CT32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -11997,8 +12129,11 @@
       <c r="CT33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CU33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -12291,6 +12426,9 @@
         <v>4</v>
       </c>
       <c r="CT34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076B2984-6789-4871-B9BE-42DC0127CCB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A75A9F6-DFC5-4FF6-836B-C9A5F04603C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,6 +466,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CV10" authorId="0" shapeId="0" xr:uid="{58D45175-85D9-4497-A4A1-506269578302}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:01</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AR12" authorId="0" shapeId="0" xr:uid="{545F614C-5FF6-474D-A0CA-692648A0BE68}">
       <text>
         <r>
@@ -491,6 +505,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CV12" authorId="0" shapeId="0" xr:uid="{FF00BA79-A8AA-4E9B-8080-229C5C28955B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:12</t>
         </r>
       </text>
     </comment>
@@ -706,6 +734,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CV13" authorId="0" shapeId="0" xr:uid="{2C090016-BA9B-46EF-8DD2-CF77CA362379}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:17</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AT14" authorId="0" shapeId="0" xr:uid="{DF014D67-CF6A-43AC-954D-E6FB7EDDB7BE}">
       <text>
         <r>
@@ -1642,6 +1684,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CV24" authorId="0" shapeId="0" xr:uid="{FB99142A-77D4-495F-814D-8AA78A32CEE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:03</t>
         </r>
       </text>
     </comment>
@@ -2183,7 +2239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2465,7 +2521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2564,11 +2620,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2604,6 +2671,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2820,13 +2890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CU34"/>
+  <dimension ref="A1:CW34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CM7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CM11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CV16" sqref="CV16"/>
+      <selection pane="bottomRight" activeCell="CX25" sqref="CX25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2855,16 +2925,16 @@
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="82" max="93" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="10.88671875" customWidth="1"/>
-    <col min="95" max="99" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="95" max="100" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="CU1">
-        <f>COUNTA(CU4:CU34)</f>
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CV1">
+        <f>COUNTA(CV4:CV34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:99" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:101" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -3162,8 +3232,11 @@
       <c r="CU3" s="5">
         <v>45143</v>
       </c>
+      <c r="CV3" s="5">
+        <v>45145</v>
+      </c>
     </row>
-    <row r="4" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3461,8 +3534,11 @@
       <c r="CU4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3760,8 +3836,11 @@
       <c r="CU5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4059,8 +4138,11 @@
       <c r="CU6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4358,8 +4440,11 @@
       <c r="CU7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4657,8 +4742,11 @@
       <c r="CU8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4956,8 +5044,11 @@
       <c r="CU9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5255,8 +5346,11 @@
       <c r="CU10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5554,8 +5648,11 @@
       <c r="CU11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5853,8 +5950,12 @@
       <c r="CU12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CW12" s="16"/>
     </row>
-    <row r="13" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -6152,8 +6253,11 @@
       <c r="CU13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -6451,8 +6555,11 @@
       <c r="CU14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -6750,8 +6857,11 @@
       <c r="CU15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -7049,8 +7159,11 @@
       <c r="CU16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7348,8 +7461,11 @@
       <c r="CU17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7647,8 +7763,11 @@
       <c r="CU18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7946,8 +8065,11 @@
       <c r="CU19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -8245,8 +8367,11 @@
       <c r="CU20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -8544,8 +8669,11 @@
       <c r="CU21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -8843,8 +8971,11 @@
       <c r="CU22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -9142,8 +9273,11 @@
       <c r="CU23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9441,8 +9575,11 @@
       <c r="CU24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -9740,8 +9877,11 @@
       <c r="CU25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -10039,8 +10179,11 @@
       <c r="CU26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -10338,8 +10481,11 @@
       <c r="CU27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -10637,8 +10783,11 @@
       <c r="CU28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -10936,8 +11085,11 @@
       <c r="CU29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -11235,8 +11387,11 @@
       <c r="CU30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -11534,8 +11689,11 @@
       <c r="CU31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -11833,8 +11991,11 @@
       <c r="CU32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -12132,8 +12293,11 @@
       <c r="CU33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CV33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -12429,6 +12593,9 @@
         <v>4</v>
       </c>
       <c r="CU34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CV34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A4BCD7-391E-467B-91CA-D395813E3073}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121EB8BF-BE78-4E22-968B-0E11182CC72D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -860,6 +860,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CX15" authorId="0" shapeId="0" xr:uid="{65724BC8-9C0D-4F57-ADCF-AC7A43AE6E98}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:01</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Z18" authorId="0" shapeId="0" xr:uid="{08D2A270-552A-494A-8EB7-D7239F622756}">
       <text>
         <r>
@@ -1039,6 +1053,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:03</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CX18" authorId="0" shapeId="0" xr:uid="{57CC561E-10D1-4771-8983-82775833A5A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:01</t>
         </r>
       </text>
     </comment>
@@ -1729,6 +1757,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CX24" authorId="0" shapeId="0" xr:uid="{8C00DC6F-2DA4-48FF-B0D5-81D52CD07252}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:10</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R25" authorId="0" shapeId="0" xr:uid="{2E3360AC-93ED-47D5-A29A-768ED91910D3}">
       <text>
         <r>
@@ -1953,6 +1995,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CX25" authorId="0" shapeId="0" xr:uid="{1011DE76-24C5-48DC-BBD2-89704A0E96C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:01</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AS27" authorId="0" shapeId="0" xr:uid="{E3CE2C02-3FD9-4256-B1DE-A8BDC78C9795}">
       <text>
         <r>
@@ -1964,6 +2020,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:04</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CX27" authorId="0" shapeId="0" xr:uid="{9489AD1F-440F-46EE-AC9D-C14609361530}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:01</t>
         </r>
       </text>
     </comment>
@@ -2231,6 +2301,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:03</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CX32" authorId="0" shapeId="0" xr:uid="{42AA7446-E629-47A5-8B18-A2EA8F653FBB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:01</t>
         </r>
       </text>
     </comment>
@@ -2267,7 +2351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2904,13 +2988,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CW34"/>
+  <dimension ref="A1:CX34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CM11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CM12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CW12" sqref="CW12"/>
+      <selection pane="bottomRight" activeCell="CY13" sqref="CY13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2939,20 +3023,16 @@
     <col min="81" max="81" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="82" max="93" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="10.88671875" customWidth="1"/>
-    <col min="95" max="101" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="95" max="102" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="CV1">
-        <f>COUNTA(CV4:CV34)</f>
+    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="CX1">
+        <f>COUNTA(CX4:CX34)</f>
         <v>31</v>
       </c>
-      <c r="CW1">
-        <f>COUNTA(CW4:CW34)</f>
-        <v>31</v>
-      </c>
     </row>
-    <row r="3" spans="1:101" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:102" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -3256,8 +3336,11 @@
       <c r="CW3" s="5">
         <v>45146</v>
       </c>
+      <c r="CX3" s="5">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="4" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3561,8 +3644,11 @@
       <c r="CW4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3866,8 +3952,11 @@
       <c r="CW5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4171,8 +4260,11 @@
       <c r="CW6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4476,8 +4568,11 @@
       <c r="CW7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4781,8 +4876,11 @@
       <c r="CW8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -5086,8 +5184,11 @@
       <c r="CW9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5391,8 +5492,11 @@
       <c r="CW10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5696,8 +5800,11 @@
       <c r="CW11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -6001,8 +6108,11 @@
       <c r="CW12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -6306,8 +6416,11 @@
       <c r="CW13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -6611,8 +6724,11 @@
       <c r="CW14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -6916,8 +7032,11 @@
       <c r="CW15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -7221,8 +7340,11 @@
       <c r="CW16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7526,8 +7648,11 @@
       <c r="CW17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7831,8 +7956,11 @@
       <c r="CW18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -8136,8 +8264,11 @@
       <c r="CW19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -8441,8 +8572,11 @@
       <c r="CW20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -8746,8 +8880,11 @@
       <c r="CW21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9051,8 +9188,11 @@
       <c r="CW22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX22" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="23" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -9356,8 +9496,11 @@
       <c r="CW23" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="CX23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9661,8 +9804,11 @@
       <c r="CW24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -9966,8 +10112,11 @@
       <c r="CW25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -10271,8 +10420,11 @@
       <c r="CW26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -10576,8 +10728,11 @@
       <c r="CW27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -10881,8 +11036,11 @@
       <c r="CW28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -11186,8 +11344,11 @@
       <c r="CW29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -11491,8 +11652,11 @@
       <c r="CW30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -11796,8 +11960,11 @@
       <c r="CW31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -12101,8 +12268,11 @@
       <c r="CW32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -12406,8 +12576,11 @@
       <c r="CW33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CX33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -12709,6 +12882,9 @@
         <v>4</v>
       </c>
       <c r="CW34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CX34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121EB8BF-BE78-4E22-968B-0E11182CC72D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A6458F-4006-4B45-A785-8717EAD6AFC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,6 +298,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CY7" authorId="0" shapeId="0" xr:uid="{CE624AE8-42FE-4EB5-AD53-294373AC94EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:02</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BQ9" authorId="0" shapeId="0" xr:uid="{58F9013A-5E17-44CE-A1B7-B23E2E98B046}">
       <text>
         <r>
@@ -874,6 +888,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CY15" authorId="0" shapeId="0" xr:uid="{C65A2EDC-3CB6-486A-A0B8-ED63595825AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:08</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Z18" authorId="0" shapeId="0" xr:uid="{08D2A270-552A-494A-8EB7-D7239F622756}">
       <text>
         <r>
@@ -2006,6 +2034,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CY25" authorId="0" shapeId="0" xr:uid="{923E4639-FECA-4D5A-944B-EF55DE6A449C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:08</t>
         </r>
       </text>
     </comment>
@@ -2351,7 +2393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2988,13 +3030,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CX34"/>
+  <dimension ref="A1:CY34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CM12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CN4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CY13" sqref="CY13"/>
+      <selection pane="bottomRight" activeCell="CY25" sqref="CY25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3024,15 +3066,16 @@
     <col min="82" max="93" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="10.88671875" customWidth="1"/>
     <col min="95" max="102" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="CX1">
-        <f>COUNTA(CX4:CX34)</f>
+    <row r="1" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CY1">
+        <f>COUNTA(CY4:CY34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:102" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -3339,8 +3382,11 @@
       <c r="CX3" s="5">
         <v>45147</v>
       </c>
+      <c r="CY3" s="5">
+        <v>45148</v>
+      </c>
     </row>
-    <row r="4" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3647,8 +3693,11 @@
       <c r="CX4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3955,8 +4004,11 @@
       <c r="CX5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4263,8 +4315,11 @@
       <c r="CX6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4571,8 +4626,11 @@
       <c r="CX7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4879,8 +4937,11 @@
       <c r="CX8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -5187,8 +5248,11 @@
       <c r="CX9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5495,8 +5559,11 @@
       <c r="CX10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5803,8 +5870,11 @@
       <c r="CX11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -6111,8 +6181,11 @@
       <c r="CX12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -6419,8 +6492,11 @@
       <c r="CX13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -6727,8 +6803,11 @@
       <c r="CX14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -7035,8 +7114,11 @@
       <c r="CX15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -7343,8 +7425,11 @@
       <c r="CX16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7651,8 +7736,11 @@
       <c r="CX17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7959,8 +8047,11 @@
       <c r="CX18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -8267,8 +8358,11 @@
       <c r="CX19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -8575,8 +8669,11 @@
       <c r="CX20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -8883,8 +8980,11 @@
       <c r="CX21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9191,8 +9291,11 @@
       <c r="CX22" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="CY22" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="23" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -9499,8 +9602,11 @@
       <c r="CX23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9807,8 +9913,11 @@
       <c r="CX24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -10115,8 +10224,11 @@
       <c r="CX25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -10423,8 +10535,11 @@
       <c r="CX26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -10731,8 +10846,11 @@
       <c r="CX27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -11039,8 +11157,11 @@
       <c r="CX28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -11347,8 +11468,11 @@
       <c r="CX29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -11655,8 +11779,11 @@
       <c r="CX30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -11963,8 +12090,11 @@
       <c r="CX31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -12271,8 +12401,11 @@
       <c r="CX32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -12579,8 +12712,11 @@
       <c r="CX33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CY33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -12885,6 +13021,9 @@
         <v>4</v>
       </c>
       <c r="CX34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CY34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A6458F-4006-4B45-A785-8717EAD6AFC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E24EC1-5C54-41D4-ADC7-496725B9373E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,6 +312,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CZ7" authorId="0" shapeId="0" xr:uid="{78631765-0909-461A-8088-80A35D6A304E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:01</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BQ9" authorId="0" shapeId="0" xr:uid="{58F9013A-5E17-44CE-A1B7-B23E2E98B046}">
       <text>
         <r>
@@ -481,6 +495,20 @@
       </text>
     </comment>
     <comment ref="CV10" authorId="0" shapeId="0" xr:uid="{58D45175-85D9-4497-A4A1-506269578302}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CZ10" authorId="0" shapeId="0" xr:uid="{51087BB6-E1A4-4FAF-96B8-95AAF393D643}">
       <text>
         <r>
           <rPr>
@@ -776,6 +804,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CZ13" authorId="0" shapeId="0" xr:uid="{9980D4FE-635D-4D4C-B4F8-7514EA0054F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:01</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AT14" authorId="0" shapeId="0" xr:uid="{DF014D67-CF6A-43AC-954D-E6FB7EDDB7BE}">
       <text>
         <r>
@@ -1098,6 +1140,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CZ18" authorId="0" shapeId="0" xr:uid="{FD400150-990A-4DAA-8802-351848029599}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:04</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BJ19" authorId="0" shapeId="0" xr:uid="{48F35BF0-9CB9-4D81-AF45-B901F733BC15}">
       <text>
         <r>
@@ -1473,6 +1529,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CZ22" authorId="0" shapeId="0" xr:uid="{1D0DFE21-BE34-4077-BBB0-A062FB5B44D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:04</t>
         </r>
       </text>
     </comment>
@@ -1799,6 +1869,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CZ24" authorId="0" shapeId="0" xr:uid="{098D72F4-B9BB-4D06-81ED-EED984A6FBB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:13</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R25" authorId="0" shapeId="0" xr:uid="{2E3360AC-93ED-47D5-A29A-768ED91910D3}">
       <text>
         <r>
@@ -2360,6 +2444,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="CZ32" authorId="0" shapeId="0" xr:uid="{3F638D50-62CB-4FB7-A0D2-632BA902AAB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:04</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AU34" authorId="0" shapeId="0" xr:uid="{F06C597E-7767-48F7-9EDB-4969A42CF1C1}">
       <text>
         <r>
@@ -2385,6 +2483,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:04</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CZ34" authorId="0" shapeId="0" xr:uid="{7F1A119B-A094-4BE9-8252-D49BF5855FC6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:01</t>
         </r>
       </text>
     </comment>
@@ -2393,7 +2505,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -3030,13 +3142,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CY34"/>
+  <dimension ref="A1:CZ34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CN4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CO12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CY25" sqref="CY25"/>
+      <selection pane="bottomRight" activeCell="DB16" sqref="DB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3066,16 +3178,16 @@
     <col min="82" max="93" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="10.88671875" customWidth="1"/>
     <col min="95" max="102" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="103" max="104" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="CY1">
-        <f>COUNTA(CY4:CY34)</f>
+    <row r="1" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="CZ1">
+        <f>COUNTA(CZ4:CZ34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:103" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:104" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -3385,8 +3497,11 @@
       <c r="CY3" s="5">
         <v>45148</v>
       </c>
+      <c r="CZ3" s="5">
+        <v>45149</v>
+      </c>
     </row>
-    <row r="4" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3696,8 +3811,11 @@
       <c r="CY4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4007,8 +4125,11 @@
       <c r="CY5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4318,8 +4439,11 @@
       <c r="CY6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4629,8 +4753,11 @@
       <c r="CY7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4940,8 +5067,11 @@
       <c r="CY8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ8" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="9" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -5251,8 +5381,11 @@
       <c r="CY9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5562,8 +5695,11 @@
       <c r="CY10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5873,8 +6009,11 @@
       <c r="CY11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -6184,8 +6323,11 @@
       <c r="CY12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -6495,8 +6637,11 @@
       <c r="CY13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -6806,8 +6951,11 @@
       <c r="CY14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -7117,8 +7265,11 @@
       <c r="CY15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -7428,8 +7579,11 @@
       <c r="CY16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7739,8 +7893,11 @@
       <c r="CY17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -8050,8 +8207,11 @@
       <c r="CY18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -8361,8 +8521,11 @@
       <c r="CY19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -8672,8 +8835,11 @@
       <c r="CY20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -8983,8 +9149,11 @@
       <c r="CY21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9294,8 +9463,11 @@
       <c r="CY22" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="CZ22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -9605,8 +9777,11 @@
       <c r="CY23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9916,8 +10091,11 @@
       <c r="CY24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -10227,8 +10405,11 @@
       <c r="CY25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -10538,8 +10719,11 @@
       <c r="CY26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -10849,8 +11033,11 @@
       <c r="CY27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -11160,8 +11347,11 @@
       <c r="CY28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -11471,8 +11661,11 @@
       <c r="CY29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -11782,8 +11975,11 @@
       <c r="CY30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -12093,8 +12289,11 @@
       <c r="CY31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -12404,8 +12603,11 @@
       <c r="CY32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -12715,8 +12917,11 @@
       <c r="CY33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="CZ33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -13024,6 +13229,9 @@
         <v>4</v>
       </c>
       <c r="CY34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CZ34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E24EC1-5C54-41D4-ADC7-496725B9373E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ED7F6C-C972-48AF-A173-D09291828568}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,6 +326,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="DA7" authorId="0" shapeId="0" xr:uid="{6034D0E2-BEBA-4A7F-98CC-6C6CF13EE01A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:10</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BQ9" authorId="0" shapeId="0" xr:uid="{58F9013A-5E17-44CE-A1B7-B23E2E98B046}">
       <text>
         <r>
@@ -818,6 +832,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="DA13" authorId="0" shapeId="0" xr:uid="{D3CC5729-31F4-4F80-B716-8576E1436173}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:13</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AT14" authorId="0" shapeId="0" xr:uid="{DF014D67-CF6A-43AC-954D-E6FB7EDDB7BE}">
       <text>
         <r>
@@ -1347,6 +1375,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:02</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DA20" authorId="0" shapeId="0" xr:uid="{5D1FF466-66CC-44CB-B02A-04C6F70306CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:12</t>
         </r>
       </text>
     </comment>
@@ -1883,6 +1925,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="DA24" authorId="0" shapeId="0" xr:uid="{8F72B935-2328-4669-A4D6-6280B19D3CCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:07</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R25" authorId="0" shapeId="0" xr:uid="{2E3360AC-93ED-47D5-A29A-768ED91910D3}">
       <text>
         <r>
@@ -2497,6 +2553,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DA34" authorId="0" shapeId="0" xr:uid="{88B11E53-30FE-4583-AA78-8D7D0CA93189}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:10</t>
         </r>
       </text>
     </comment>
@@ -2505,7 +2575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3358" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -3142,13 +3212,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:CZ34"/>
+  <dimension ref="A1:DA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CO12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CP11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DB16" sqref="DB16"/>
+      <selection pane="bottomRight" activeCell="DA27" sqref="DA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3178,16 +3248,16 @@
     <col min="82" max="93" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="10.88671875" customWidth="1"/>
     <col min="95" max="102" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="103" max="104" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="103" max="105" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="CZ1">
-        <f>COUNTA(CZ4:CZ34)</f>
+    <row r="1" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="DA1">
+        <f>COUNTA(DA4:DA34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:104" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:105" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -3500,8 +3570,11 @@
       <c r="CZ3" s="5">
         <v>45149</v>
       </c>
+      <c r="DA3" s="5">
+        <v>45150</v>
+      </c>
     </row>
-    <row r="4" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3814,8 +3887,11 @@
       <c r="CZ4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4128,8 +4204,11 @@
       <c r="CZ5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4442,8 +4521,11 @@
       <c r="CZ6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4756,8 +4838,11 @@
       <c r="CZ7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -5070,8 +5155,11 @@
       <c r="CZ8" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="DA8" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="9" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -5384,8 +5472,11 @@
       <c r="CZ9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5698,8 +5789,11 @@
       <c r="CZ10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -6012,8 +6106,11 @@
       <c r="CZ11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -6326,8 +6423,11 @@
       <c r="CZ12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -6640,8 +6740,11 @@
       <c r="CZ13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -6954,8 +7057,11 @@
       <c r="CZ14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -7268,8 +7374,11 @@
       <c r="CZ15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -7582,8 +7691,11 @@
       <c r="CZ16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7896,8 +8008,11 @@
       <c r="CZ17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -8210,8 +8325,11 @@
       <c r="CZ18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -8524,8 +8642,11 @@
       <c r="CZ19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -8838,8 +8959,11 @@
       <c r="CZ20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -9152,8 +9276,11 @@
       <c r="CZ21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9466,8 +9593,11 @@
       <c r="CZ22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -9780,8 +9910,11 @@
       <c r="CZ23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -10094,8 +10227,11 @@
       <c r="CZ24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -10408,8 +10544,11 @@
       <c r="CZ25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -10722,8 +10861,11 @@
       <c r="CZ26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -11036,8 +11178,11 @@
       <c r="CZ27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -11350,8 +11495,11 @@
       <c r="CZ28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -11664,8 +11812,11 @@
       <c r="CZ29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -11978,8 +12129,11 @@
       <c r="CZ30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -12292,8 +12446,11 @@
       <c r="CZ31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -12606,8 +12763,11 @@
       <c r="CZ32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -12920,8 +13080,11 @@
       <c r="CZ33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DA33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -13232,6 +13395,9 @@
         <v>4</v>
       </c>
       <c r="CZ34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="DA34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ED7F6C-C972-48AF-A173-D09291828568}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35190FF8-65A3-4F5B-94AA-0E2FF478D34A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,6 +846,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="DB13" authorId="0" shapeId="0" xr:uid="{CE10FC35-ED4A-4309-B9FB-ADDDB3D69ED1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:28</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AT14" authorId="0" shapeId="0" xr:uid="{DF014D67-CF6A-43AC-954D-E6FB7EDDB7BE}">
       <text>
         <r>
@@ -1389,6 +1403,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DB20" authorId="0" shapeId="0" xr:uid="{1A124110-5943-496A-97AC-F06E4532C208}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:04</t>
         </r>
       </text>
     </comment>
@@ -1936,6 +1964,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:07</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DB24" authorId="0" shapeId="0" xr:uid="{10BD7075-4516-40DB-9E08-D5BA749B8AF6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:06</t>
         </r>
       </text>
     </comment>
@@ -2575,7 +2617,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3358" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2857,7 +2899,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2956,11 +2998,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2996,6 +3049,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3212,13 +3268,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:DA34"/>
+  <dimension ref="A1:DC34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CP11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CQ12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DA27" sqref="DA27"/>
+      <selection pane="bottomRight" activeCell="DB13" sqref="DB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3248,16 +3304,16 @@
     <col min="82" max="93" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="10.88671875" customWidth="1"/>
     <col min="95" max="102" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="103" max="105" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="103" max="106" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="DA1">
-        <f>COUNTA(DA4:DA34)</f>
+    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="DB1">
+        <f>COUNTA(DB4:DB34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:105" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:107" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -3573,8 +3629,11 @@
       <c r="DA3" s="5">
         <v>45150</v>
       </c>
+      <c r="DB3" s="5">
+        <v>45152</v>
+      </c>
     </row>
-    <row r="4" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3890,8 +3949,11 @@
       <c r="DA4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4207,8 +4269,11 @@
       <c r="DA5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4524,8 +4589,11 @@
       <c r="DA6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4841,8 +4909,11 @@
       <c r="DA7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -5158,8 +5229,11 @@
       <c r="DA8" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="DB8" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="9" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -5475,8 +5549,11 @@
       <c r="DA9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5792,8 +5869,11 @@
       <c r="DA10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -6109,8 +6189,11 @@
       <c r="DA11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -6426,8 +6509,11 @@
       <c r="DA12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -6743,8 +6829,12 @@
       <c r="DA13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="DC13" s="16"/>
     </row>
-    <row r="14" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -7060,8 +7150,11 @@
       <c r="DA14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -7377,8 +7470,11 @@
       <c r="DA15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -7694,8 +7790,11 @@
       <c r="DA16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -8011,8 +8110,11 @@
       <c r="DA17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -8328,8 +8430,11 @@
       <c r="DA18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -8645,8 +8750,11 @@
       <c r="DA19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -8962,8 +9070,11 @@
       <c r="DA20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -9279,8 +9390,11 @@
       <c r="DA21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9596,8 +9710,11 @@
       <c r="DA22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB22" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="23" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -9913,8 +10030,11 @@
       <c r="DA23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -10230,8 +10350,11 @@
       <c r="DA24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -10547,8 +10670,11 @@
       <c r="DA25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -10864,8 +10990,11 @@
       <c r="DA26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -11181,8 +11310,11 @@
       <c r="DA27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -11498,8 +11630,11 @@
       <c r="DA28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -11815,8 +11950,11 @@
       <c r="DA29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -12132,8 +12270,11 @@
       <c r="DA30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -12449,8 +12590,11 @@
       <c r="DA31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -12766,8 +12910,11 @@
       <c r="DA32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -13083,8 +13230,11 @@
       <c r="DA33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DB33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -13398,6 +13548,9 @@
         <v>4</v>
       </c>
       <c r="DA34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="DB34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35190FF8-65A3-4F5B-94AA-0E2FF478D34A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821353F3-2E16-4F28-9BDD-0FB98859B4AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,6 +71,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="DC5" authorId="0" shapeId="0" xr:uid="{46EF0A06-CACD-42A9-9C3C-C7DB6F506FEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:07</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BP6" authorId="0" shapeId="0" xr:uid="{FD55F6C6-469C-4178-A7B6-73CAAEE2A66E}">
       <text>
         <r>
@@ -536,6 +550,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="DC10" authorId="0" shapeId="0" xr:uid="{FF5A7439-918D-45A0-B7A3-5BC26713CEC0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:04</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AR12" authorId="0" shapeId="0" xr:uid="{545F614C-5FF6-474D-A0CA-692648A0BE68}">
       <text>
         <r>
@@ -2300,6 +2328,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:02</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DC29" authorId="0" shapeId="0" xr:uid="{E2C1EDD9-5F56-4143-B75B-029268FD2287}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:07</t>
         </r>
       </text>
     </comment>
@@ -2617,7 +2659,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -2899,7 +2941,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2998,22 +3040,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3049,9 +3080,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3271,10 +3299,10 @@
   <dimension ref="A1:DC34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CQ12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CR7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DB13" sqref="DB13"/>
+      <selection pane="bottomRight" activeCell="DC30" sqref="DC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3304,13 +3332,13 @@
     <col min="82" max="93" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="10.88671875" customWidth="1"/>
     <col min="95" max="102" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="103" max="106" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="103" max="107" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="DB1">
-        <f>COUNTA(DB4:DB34)</f>
-        <v>31</v>
+      <c r="DC1">
+        <f>COUNTA(DC4:DC34)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:107" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -3632,6 +3660,9 @@
       <c r="DB3" s="5">
         <v>45152</v>
       </c>
+      <c r="DC3" s="5">
+        <v>45154</v>
+      </c>
     </row>
     <row r="4" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3952,6 +3983,9 @@
       <c r="DB4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -4272,6 +4306,9 @@
       <c r="DB5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -4592,6 +4629,9 @@
       <c r="DB6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -4910,6 +4950,9 @@
         <v>4</v>
       </c>
       <c r="DB7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="DC7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5232,6 +5275,7 @@
       <c r="DB8" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="DC8" s="8"/>
     </row>
     <row r="9" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -5552,6 +5596,9 @@
       <c r="DB9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -5872,6 +5919,9 @@
       <c r="DB10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -6192,6 +6242,9 @@
       <c r="DB11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -6512,6 +6565,9 @@
       <c r="DB12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -6832,7 +6888,9 @@
       <c r="DB13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="DC13" s="16"/>
+      <c r="DC13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -7153,6 +7211,9 @@
       <c r="DB14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -7473,6 +7534,9 @@
       <c r="DB15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -7793,8 +7857,11 @@
       <c r="DB16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -8113,8 +8180,11 @@
       <c r="DB17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -8433,8 +8503,11 @@
       <c r="DB18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -8753,8 +8826,11 @@
       <c r="DB19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -9073,8 +9149,11 @@
       <c r="DB20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -9393,8 +9472,11 @@
       <c r="DB21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9713,8 +9795,11 @@
       <c r="DB22" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="DC22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -10033,8 +10118,11 @@
       <c r="DB23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -10353,8 +10441,11 @@
       <c r="DB24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -10673,8 +10764,11 @@
       <c r="DB25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC25" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -10993,8 +11087,11 @@
       <c r="DB26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -11313,8 +11410,11 @@
       <c r="DB27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -11633,8 +11733,11 @@
       <c r="DB28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC28" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -11953,8 +12056,11 @@
       <c r="DB29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -12273,8 +12379,11 @@
       <c r="DB30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -12593,8 +12702,11 @@
       <c r="DB31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -12913,8 +13025,11 @@
       <c r="DB32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -13233,8 +13348,11 @@
       <c r="DB33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DC33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -13551,6 +13669,9 @@
         <v>4</v>
       </c>
       <c r="DB34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="DC34" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821353F3-2E16-4F28-9BDD-0FB98859B4AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1214DD2F-B072-4137-B58A-9943DAD65AE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,6 +354,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="DC8" authorId="0" shapeId="0" xr:uid="{15B26FAC-89FF-48F4-95AE-FBB611A514E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>13:41</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BQ9" authorId="0" shapeId="0" xr:uid="{58F9013A-5E17-44CE-A1B7-B23E2E98B046}">
       <text>
         <r>
@@ -2659,7 +2673,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -3302,7 +3316,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="CR7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DC30" sqref="DC30"/>
+      <selection pane="bottomRight" activeCell="DC8" sqref="DC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3338,7 +3352,7 @@
     <row r="1" spans="1:107" x14ac:dyDescent="0.25">
       <c r="DC1">
         <f>COUNTA(DC4:DC34)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:107" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -5275,7 +5289,9 @@
       <c r="DB8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="DC8" s="8"/>
+      <c r="DC8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">

--- a/Attendance_UST batch1 Jag.xlsx
+++ b/Attendance_UST batch1 Jag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1214DD2F-B072-4137-B58A-9943DAD65AE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EC3EA7-5850-4F76-BD02-445F93EB810A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,6 +354,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="DD7" authorId="0" shapeId="0" xr:uid="{C1225FA5-4C35-4BB1-884C-EDFEC268B392}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>On ONAM duty</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="DC8" authorId="0" shapeId="0" xr:uid="{15B26FAC-89FF-48F4-95AE-FBB611A514E8}">
       <text>
         <r>
@@ -902,6 +916,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="DD13" authorId="0" shapeId="0" xr:uid="{8C018583-D2DF-4655-BDBE-11B15ABB42BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:07</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AT14" authorId="0" shapeId="0" xr:uid="{DF014D67-CF6A-43AC-954D-E6FB7EDDB7BE}">
       <text>
         <r>
@@ -1459,6 +1487,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:04</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DD20" authorId="0" shapeId="0" xr:uid="{8AA7943D-86C3-4790-8FE1-6E0C266BC5BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:14</t>
         </r>
       </text>
     </comment>
@@ -2665,6 +2707,20 @@
             <charset val="1"/>
           </rPr>
           <t>09:10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DD34" authorId="0" shapeId="0" xr:uid="{91C696AA-D518-42C3-9C3A-720C93720CD5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>09:07</t>
         </r>
       </text>
     </comment>
@@ -2673,7 +2729,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="63">
   <si>
     <t>Neethu Nelliparambil Rathimohan</t>
   </si>
@@ -3310,13 +3366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CE229-5C7B-4A55-BA1C-7AC460CD1DB9}">
-  <dimension ref="A1:DC34"/>
+  <dimension ref="A1:DD34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CR7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CS4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DC8" sqref="DC8"/>
+      <selection pane="bottomRight" activeCell="DD7" sqref="DD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3346,16 +3402,16 @@
     <col min="82" max="93" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="10.88671875" customWidth="1"/>
     <col min="95" max="102" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="103" max="107" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="103" max="108" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="DC1">
-        <f>COUNTA(DC4:DC34)</f>
+    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DD1">
+        <f>COUNTA(DD4:DD34)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:107" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:108" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -3677,8 +3733,11 @@
       <c r="DC3" s="5">
         <v>45154</v>
       </c>
+      <c r="DD3" s="5">
+        <v>45155</v>
+      </c>
     </row>
-    <row r="4" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4000,8 +4059,11 @@
       <c r="DC4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4323,8 +4385,11 @@
       <c r="DC5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4646,8 +4711,11 @@
       <c r="DC6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4969,8 +5037,11 @@
       <c r="DC7" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -5292,8 +5363,11 @@
       <c r="DC8" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -5615,8 +5689,11 @@
       <c r="DC9" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD9" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5938,8 +6015,11 @@
       <c r="DC10" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD10" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -6261,8 +6341,11 @@
       <c r="DC11" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD11" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -6584,8 +6667,11 @@
       <c r="DC12" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD12" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -6907,8 +6993,11 @@
       <c r="DC13" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD13" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -7230,8 +7319,11 @@
       <c r="DC14" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD14" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -7553,8 +7645,11 @@
       <c r="DC15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD15" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -7876,8 +7971,11 @@
       <c r="DC16" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD16" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -8199,8 +8297,11 @@
       <c r="DC17" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD17" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -8522,8 +8623,11 @@
       <c r="DC18" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD18" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -8845,8 +8949,11 @@
       <c r="DC19" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD19" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -9168,8 +9275,11 @@
       <c r="DC20" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD20" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -9491,8 +9601,11 @@
       <c r="DC21" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9814,8 +9927,11 @@
       <c r="DC22" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -10137,8 +10253,11 @@
       <c r="DC23" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -10460,8 +10579,11 @@
       <c r="DC24" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD24" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -10783,8 +10905,11 @@
       <c r="DC25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD25" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="26" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -11106,8 +11231,11 @@
       <c r="DC26" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD26" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -11429,8 +11557,11 @@
       <c r="DC27" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD27" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -11752,8 +11883,11 @@
       <c r="DC28" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD28" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="29" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -12075,8 +12209,11 @@
       <c r="DC29" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD29" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -12398,8 +12535,11 @@
       <c r="DC30" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD30" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -12721,8 +12861,11 @@
       <c r="DC31" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD31" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -13044,8 +13187,11 @@
       <c r="DC32" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD32" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -13367,8 +13513,11 @@
       <c r="DC33" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="DD33" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:108" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -13688,6 +13837,9 @@
         <v>4</v>
       </c>
       <c r="DC34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="DD34" s="8" t="s">
         <v>4</v>
       </c>
     </row>
